--- a/data/vgp_database/Sonoma_volcanics.xlsx
+++ b/data/vgp_database/Sonoma_volcanics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E7C9FC-79D7-D446-B06F-CC13D8A28111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB7F948-D2EB-3643-9773-8762DC94FBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,9 +380,6 @@
     <t>SV20</t>
   </si>
   <si>
-    <t>SV19 (S4, S5)</t>
-  </si>
-  <si>
     <t>K-Ar age updated (from Mankinen, 1972) to 1989 standards</t>
   </si>
   <si>
@@ -669,6 +666,9 @@
   </si>
   <si>
     <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;58</t>
+  </si>
+  <si>
+    <t>SV19 (S4 S5)</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T2" workbookViewId="0">
-      <selection activeCell="AN7" sqref="AN7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1668,13 +1668,13 @@
         <v>27</v>
       </c>
       <c r="Z8" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA8" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="AA8" s="38" t="s">
+      <c r="AB8" s="38" t="s">
         <v>142</v>
-      </c>
-      <c r="AB8" s="38" t="s">
-        <v>143</v>
       </c>
       <c r="AC8" s="5" t="s">
         <v>54</v>
@@ -1716,7 +1716,7 @@
         <v>40</v>
       </c>
       <c r="AP8" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
@@ -1783,13 +1783,13 @@
       </c>
       <c r="Y9" s="17"/>
       <c r="Z9" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA9" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB9" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC9" s="11" t="s">
         <v>65</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="AO9" s="20"/>
       <c r="AP9" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1893,13 +1893,13 @@
         <v>72</v>
       </c>
       <c r="Z10" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA10" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB10" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC10" s="11" t="s">
         <v>73</v>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="AO10" s="20"/>
       <c r="AP10" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2003,13 +2003,13 @@
         <v>79</v>
       </c>
       <c r="Z11" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA11" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB11" s="39" t="s">
         <v>145</v>
-      </c>
-      <c r="AA11" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB11" s="39" t="s">
-        <v>146</v>
       </c>
       <c r="AC11" s="11" t="s">
         <v>65</v>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="AO11" s="20"/>
       <c r="AP11" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2113,13 +2113,13 @@
         <v>72</v>
       </c>
       <c r="Z12" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA12" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB12" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC12" s="11" t="s">
         <v>65</v>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="AO12" s="20"/>
       <c r="AP12" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2225,13 +2225,13 @@
         <v>72</v>
       </c>
       <c r="Z13" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA13" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB13" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC13" s="11" t="s">
         <v>65</v>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="AO13" s="20"/>
       <c r="AP13" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2335,13 +2335,13 @@
         <v>72</v>
       </c>
       <c r="Z14" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA14" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB14" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC14" s="11" t="s">
         <v>73</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="AO14" s="20"/>
       <c r="AP14" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2443,13 +2443,13 @@
         <v>82</v>
       </c>
       <c r="Z15" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA15" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB15" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC15" s="11" t="s">
         <v>65</v>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="AO15" s="20"/>
       <c r="AP15" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2545,13 +2545,13 @@
         <v>83</v>
       </c>
       <c r="Z16" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA16" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB16" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC16" s="11" t="s">
         <v>65</v>
@@ -2593,7 +2593,7 @@
         <v>86</v>
       </c>
       <c r="AP16" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2649,13 +2649,13 @@
         <v>83</v>
       </c>
       <c r="Z17" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA17" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB17" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC17" s="11" t="s">
         <v>65</v>
@@ -2697,7 +2697,7 @@
         <v>88</v>
       </c>
       <c r="AP17" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2761,13 +2761,13 @@
         <v>82</v>
       </c>
       <c r="Z18" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA18" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB18" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC18" s="11" t="s">
         <v>65</v>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="AO18" s="20"/>
       <c r="AP18" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2871,13 +2871,13 @@
         <v>82</v>
       </c>
       <c r="Z19" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA19" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB19" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC19" s="11" t="s">
         <v>73</v>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="AO19" s="20"/>
       <c r="AP19" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2973,13 +2973,13 @@
         <v>82</v>
       </c>
       <c r="Z20" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA20" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB20" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC20" s="11" t="s">
         <v>65</v>
@@ -3021,7 +3021,7 @@
         <v>88</v>
       </c>
       <c r="AP20" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3085,13 +3085,13 @@
         <v>82</v>
       </c>
       <c r="Z21" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA21" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB21" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC21" s="11" t="s">
         <v>73</v>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="AO21" s="20"/>
       <c r="AP21" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3195,13 +3195,13 @@
         <v>82</v>
       </c>
       <c r="Z22" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA22" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB22" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC22" s="11" t="s">
         <v>65</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="AO22" s="20"/>
       <c r="AP22" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3305,13 +3305,13 @@
         <v>82</v>
       </c>
       <c r="Z23" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA23" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB23" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC23" s="11" t="s">
         <v>73</v>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="AO23" s="20"/>
       <c r="AP23" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3407,13 +3407,13 @@
         <v>89</v>
       </c>
       <c r="Z24" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA24" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB24" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC24" s="11" t="s">
         <v>73</v>
@@ -3455,7 +3455,7 @@
         <v>92</v>
       </c>
       <c r="AP24" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3511,13 +3511,13 @@
         <v>82</v>
       </c>
       <c r="Z25" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA25" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB25" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC25" s="11" t="s">
         <v>73</v>
@@ -3559,7 +3559,7 @@
         <v>88</v>
       </c>
       <c r="AP25" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3621,13 +3621,13 @@
         <v>82</v>
       </c>
       <c r="Z26" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA26" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB26" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC26" s="11" t="s">
         <v>73</v>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="AO26" s="20"/>
       <c r="AP26" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3721,13 +3721,13 @@
         <v>82</v>
       </c>
       <c r="Z27" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA27" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB27" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC27" s="11" t="s">
         <v>73</v>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="AO27" s="20"/>
       <c r="AP27" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3825,13 +3825,13 @@
         <v>82</v>
       </c>
       <c r="Z28" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA28" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB28" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC28" s="11" t="s">
         <v>65</v>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="AO28" s="20"/>
       <c r="AP28" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3921,13 +3921,13 @@
         <v>89</v>
       </c>
       <c r="Z29" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA29" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB29" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC29" s="11" t="s">
         <v>73</v>
@@ -3965,7 +3965,7 @@
         <v>93</v>
       </c>
       <c r="AP29" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4019,13 +4019,13 @@
         <v>82</v>
       </c>
       <c r="Z30" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA30" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB30" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC30" s="11" t="s">
         <v>65</v>
@@ -4063,7 +4063,7 @@
         <v>93</v>
       </c>
       <c r="AP30" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4117,13 +4117,13 @@
         <v>83</v>
       </c>
       <c r="Z31" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA31" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB31" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC31" s="11" t="s">
         <v>65</v>
@@ -4161,7 +4161,7 @@
         <v>93</v>
       </c>
       <c r="AP31" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4225,13 +4225,13 @@
         <v>95</v>
       </c>
       <c r="Z32" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA32" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB32" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC32" s="11" t="s">
         <v>65</v>
@@ -4273,7 +4273,7 @@
         <v>98</v>
       </c>
       <c r="AP32" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4329,13 +4329,13 @@
         <v>83</v>
       </c>
       <c r="Z33" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA33" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB33" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC33" s="11" t="s">
         <v>65</v>
@@ -4377,7 +4377,7 @@
         <v>98</v>
       </c>
       <c r="AP33" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4433,13 +4433,13 @@
         <v>83</v>
       </c>
       <c r="Z34" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA34" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB34" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC34" s="11" t="s">
         <v>65</v>
@@ -4481,7 +4481,7 @@
         <v>98</v>
       </c>
       <c r="AP34" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4545,13 +4545,13 @@
         <v>83</v>
       </c>
       <c r="Z35" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA35" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB35" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC35" s="11" t="s">
         <v>65</v>
@@ -4587,7 +4587,7 @@
       <c r="AN35" s="22"/>
       <c r="AO35" s="20"/>
       <c r="AP35" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4643,13 +4643,13 @@
         <v>83</v>
       </c>
       <c r="Z36" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA36" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB36" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC36" s="11" t="s">
         <v>73</v>
@@ -4691,7 +4691,7 @@
         <v>98</v>
       </c>
       <c r="AP36" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4757,13 +4757,13 @@
         <v>83</v>
       </c>
       <c r="Z37" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA37" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB37" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC37" s="11" t="s">
         <v>65</v>
@@ -4805,7 +4805,7 @@
         <v>86</v>
       </c>
       <c r="AP37" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4869,13 +4869,13 @@
         <v>89</v>
       </c>
       <c r="Z38" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA38" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB38" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC38" s="26" t="s">
         <v>65</v>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="AO38" s="33"/>
       <c r="AP38" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4977,13 +4977,13 @@
         <v>83</v>
       </c>
       <c r="Z39" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA39" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB39" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC39" s="11" t="s">
         <v>65</v>
@@ -5019,7 +5019,7 @@
         <v>98</v>
       </c>
       <c r="AP39" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5083,13 +5083,13 @@
         <v>83</v>
       </c>
       <c r="Z40" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA40" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB40" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC40" s="11" t="s">
         <v>65</v>
@@ -5123,7 +5123,7 @@
         <v>98</v>
       </c>
       <c r="AP40" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5187,13 +5187,13 @@
         <v>82</v>
       </c>
       <c r="Z41" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA41" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB41" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC41" s="11" t="s">
         <v>65</v>
@@ -5227,7 +5227,7 @@
         <v>98</v>
       </c>
       <c r="AP41" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5291,13 +5291,13 @@
         <v>72</v>
       </c>
       <c r="Z42" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA42" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB42" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC42" s="11" t="s">
         <v>65</v>
@@ -5333,7 +5333,7 @@
         <v>98</v>
       </c>
       <c r="AP42" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5397,13 +5397,13 @@
         <v>82</v>
       </c>
       <c r="Z43" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA43" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB43" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC43" s="11" t="s">
         <v>65</v>
@@ -5437,7 +5437,7 @@
         <v>110</v>
       </c>
       <c r="AP43" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5501,13 +5501,13 @@
         <v>82</v>
       </c>
       <c r="Z44" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA44" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB44" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC44" s="11" t="s">
         <v>65</v>
@@ -5541,7 +5541,7 @@
         <v>110</v>
       </c>
       <c r="AP44" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5605,13 +5605,13 @@
         <v>82</v>
       </c>
       <c r="Z45" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA45" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB45" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC45" s="11" t="s">
         <v>65</v>
@@ -5645,7 +5645,7 @@
         <v>110</v>
       </c>
       <c r="AP45" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5709,13 +5709,13 @@
         <v>82</v>
       </c>
       <c r="Z46" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA46" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB46" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC46" s="11" t="s">
         <v>65</v>
@@ -5749,12 +5749,12 @@
         <v>110</v>
       </c>
       <c r="AP46" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>109</v>
@@ -5815,13 +5815,13 @@
         <v>72</v>
       </c>
       <c r="Z47" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA47" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB47" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC47" s="11" t="s">
         <v>65</v>
@@ -5854,15 +5854,15 @@
       </c>
       <c r="AN47" s="4"/>
       <c r="AO47" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP47" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>109</v>
@@ -5921,13 +5921,13 @@
         <v>79</v>
       </c>
       <c r="Z48" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA48" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB48" s="39" t="s">
         <v>145</v>
-      </c>
-      <c r="AA48" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB48" s="39" t="s">
-        <v>146</v>
       </c>
       <c r="AC48" s="11" t="s">
         <v>65</v>
@@ -5961,12 +5961,12 @@
         <v>110</v>
       </c>
       <c r="AP48" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>109</v>
@@ -6027,13 +6027,13 @@
         <v>72</v>
       </c>
       <c r="Z49" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA49" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB49" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC49" s="11" t="s">
         <v>65</v>
@@ -6065,18 +6065,18 @@
         <v>76</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO49" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP49" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>109</v>
@@ -6135,13 +6135,13 @@
         <v>82</v>
       </c>
       <c r="Z50" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA50" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB50" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC50" s="11" t="s">
         <v>65</v>
@@ -6175,12 +6175,12 @@
         <v>110</v>
       </c>
       <c r="AP50" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>109</v>
@@ -6239,13 +6239,13 @@
         <v>82</v>
       </c>
       <c r="Z51" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA51" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB51" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC51" s="11" t="s">
         <v>65</v>
@@ -6279,12 +6279,12 @@
         <v>110</v>
       </c>
       <c r="AP51" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>109</v>
@@ -6343,13 +6343,13 @@
         <v>82</v>
       </c>
       <c r="Z52" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA52" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB52" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC52" s="11" t="s">
         <v>65</v>
@@ -6383,12 +6383,12 @@
         <v>110</v>
       </c>
       <c r="AP52" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>109</v>
@@ -6447,13 +6447,13 @@
         <v>82</v>
       </c>
       <c r="Z53" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA53" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB53" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC53" s="11" t="s">
         <v>65</v>
@@ -6487,12 +6487,12 @@
         <v>110</v>
       </c>
       <c r="AP53" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>109</v>
@@ -6551,13 +6551,13 @@
         <v>82</v>
       </c>
       <c r="Z54" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA54" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB54" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC54" s="11" t="s">
         <v>65</v>
@@ -6591,12 +6591,12 @@
         <v>110</v>
       </c>
       <c r="AP54" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>109</v>
@@ -6655,13 +6655,13 @@
         <v>82</v>
       </c>
       <c r="Z55" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA55" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB55" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC55" s="11" t="s">
         <v>65</v>
@@ -6693,18 +6693,18 @@
         <v>87</v>
       </c>
       <c r="AN55" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO55" s="20" t="s">
         <v>88</v>
       </c>
       <c r="AP55" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>109</v>
@@ -6763,13 +6763,13 @@
         <v>82</v>
       </c>
       <c r="Z56" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA56" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB56" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC56" s="11" t="s">
         <v>65</v>
@@ -6801,18 +6801,18 @@
         <v>87</v>
       </c>
       <c r="AN56" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO56" s="20" t="s">
         <v>88</v>
       </c>
       <c r="AP56" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>109</v>
@@ -6871,13 +6871,13 @@
         <v>82</v>
       </c>
       <c r="Z57" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA57" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB57" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC57" s="11" t="s">
         <v>65</v>
@@ -6911,12 +6911,12 @@
         <v>88</v>
       </c>
       <c r="AP57" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>109</v>
@@ -6975,13 +6975,13 @@
         <v>82</v>
       </c>
       <c r="Z58" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA58" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB58" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC58" s="11" t="s">
         <v>65</v>
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL58" s="4" t="s">
         <v>76</v>
@@ -7015,18 +7015,18 @@
         <v>87</v>
       </c>
       <c r="AN58" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO58" s="20" t="s">
         <v>88</v>
       </c>
       <c r="AP58" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>109</v>
@@ -7085,13 +7085,13 @@
         <v>82</v>
       </c>
       <c r="Z59" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA59" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB59" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC59" s="11" t="s">
         <v>65</v>
@@ -7123,18 +7123,18 @@
         <v>87</v>
       </c>
       <c r="AN59" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO59" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AP59" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>109</v>
@@ -7193,13 +7193,13 @@
         <v>82</v>
       </c>
       <c r="Z60" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA60" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB60" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC60" s="11" t="s">
         <v>65</v>
@@ -7231,18 +7231,18 @@
         <v>87</v>
       </c>
       <c r="AN60" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO60" s="20" t="s">
         <v>88</v>
       </c>
       <c r="AP60" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>109</v>
@@ -7301,13 +7301,13 @@
         <v>82</v>
       </c>
       <c r="Z61" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA61" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB61" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC61" s="11" t="s">
         <v>65</v>
@@ -7343,15 +7343,15 @@
         <v>88</v>
       </c>
       <c r="AP61" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="C62" s="12">
         <v>38.47</v>
@@ -7407,13 +7407,13 @@
         <v>89</v>
       </c>
       <c r="Z62" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA62" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB62" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC62" s="11" t="s">
         <v>65</v>
@@ -7444,20 +7444,20 @@
       </c>
       <c r="AN62" s="4"/>
       <c r="AO62" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AP62" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AR62" s="15"/>
       <c r="AS62" s="15"/>
     </row>
     <row r="63" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" s="12">
         <v>38.5</v>
@@ -7513,13 +7513,13 @@
         <v>89</v>
       </c>
       <c r="Z63" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA63" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB63" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC63" s="11" t="s">
         <v>65</v>
@@ -7549,23 +7549,23 @@
         <v>47</v>
       </c>
       <c r="AN63" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO63" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AP63" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AR63" s="15"/>
       <c r="AS63" s="15"/>
     </row>
     <row r="64" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="12">
         <v>38.299999999999997</v>
@@ -7621,13 +7621,13 @@
         <v>82</v>
       </c>
       <c r="Z64" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA64" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB64" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC64" s="11" t="s">
         <v>65</v>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL64" s="4" t="s">
         <v>76</v>
@@ -7659,21 +7659,21 @@
         <v>47</v>
       </c>
       <c r="AN64" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO64" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AP64" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" s="12">
         <v>38.31</v>
@@ -7729,13 +7729,13 @@
         <v>82</v>
       </c>
       <c r="Z65" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA65" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB65" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC65" s="11" t="s">
         <v>65</v>
@@ -7766,10 +7766,10 @@
       </c>
       <c r="AN65" s="4"/>
       <c r="AO65" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AP65" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/data/vgp_database/Sonoma_volcanics.xlsx
+++ b/data/vgp_database/Sonoma_volcanics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB7F948-D2EB-3643-9773-8762DC94FBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1E458A-AD58-3C43-82CB-8645CD59F692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="159">
   <si>
     <t>Name:</t>
   </si>
@@ -500,175 +500,19 @@
     <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;2</t>
   </si>
   <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;3</t>
+    <t>SV19 (S4 S5)</t>
   </si>
   <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;4</t>
+    <t>10.1029/GL016i010p01081</t>
   </si>
   <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;5</t>
+    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;2:10.1029/GL016i010p01081</t>
   </si>
   <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;6</t>
+    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;2:10.1130/GES00626.1</t>
   </si>
   <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;7</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;8</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;9</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;10</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;11</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;12</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;13</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;14</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;15</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;16</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;17</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;18</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;19</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;20</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;21</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;22</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;23</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;24</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;25</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;26</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;27</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;28</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;29</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;30</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;31</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;32</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;33</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;34</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;35</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;36</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;37</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;38</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;39</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;40</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;41</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;42</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;43</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;44</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;45</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;46</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;47</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;48</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;49</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;50</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;51</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;52</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;53</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;54</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;55</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;56</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;57</t>
-  </si>
-  <si>
-    <t>10.1130/0016-7606(1972)83[2063:PAPAOT]2.0.CO;58</t>
-  </si>
-  <si>
-    <t>SV19 (S4 S5)</t>
+    <t>10.1029/GL016i010p01081:10.1130/GES00626.1</t>
   </si>
 </sst>
 </file>
@@ -679,7 +523,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -754,6 +598,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -797,7 +649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -881,6 +733,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1099,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS745"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="AB29" workbookViewId="0">
+      <selection activeCell="AP61" sqref="AP61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1139,7 +992,12 @@
     <col min="33" max="33" width="10.6640625" customWidth="1"/>
     <col min="34" max="34" width="9.83203125" customWidth="1"/>
     <col min="35" max="35" width="13.83203125" customWidth="1"/>
-    <col min="36" max="43" width="10.5" customWidth="1"/>
+    <col min="36" max="37" width="10.5" customWidth="1"/>
+    <col min="38" max="38" width="18.83203125" customWidth="1"/>
+    <col min="39" max="39" width="20.33203125" customWidth="1"/>
+    <col min="40" max="40" width="37.33203125" customWidth="1"/>
+    <col min="41" max="41" width="22.6640625" customWidth="1"/>
+    <col min="42" max="43" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1939,7 +1797,7 @@
       </c>
       <c r="AO10" s="20"/>
       <c r="AP10" s="40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2047,7 +1905,7 @@
       </c>
       <c r="AO11" s="20"/>
       <c r="AP11" s="40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2271,7 +2129,7 @@
       </c>
       <c r="AO13" s="20"/>
       <c r="AP13" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2379,7 +2237,7 @@
       </c>
       <c r="AO14" s="20"/>
       <c r="AP14" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2487,7 +2345,7 @@
       </c>
       <c r="AO15" s="20"/>
       <c r="AP15" s="40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2593,7 +2451,7 @@
         <v>86</v>
       </c>
       <c r="AP16" s="40" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2697,7 +2555,7 @@
         <v>88</v>
       </c>
       <c r="AP17" s="40" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2807,7 +2665,7 @@
       </c>
       <c r="AO18" s="20"/>
       <c r="AP18" s="40" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2917,7 +2775,7 @@
       </c>
       <c r="AO19" s="20"/>
       <c r="AP19" s="40" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3021,7 +2879,7 @@
         <v>88</v>
       </c>
       <c r="AP20" s="40" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3131,7 +2989,7 @@
       </c>
       <c r="AO21" s="20"/>
       <c r="AP21" s="40" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3241,7 +3099,7 @@
       </c>
       <c r="AO22" s="20"/>
       <c r="AP22" s="40" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3351,7 +3209,7 @@
       </c>
       <c r="AO23" s="20"/>
       <c r="AP23" s="40" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3455,7 +3313,7 @@
         <v>92</v>
       </c>
       <c r="AP24" s="40" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3559,7 +3417,7 @@
         <v>88</v>
       </c>
       <c r="AP25" s="40" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3667,7 +3525,7 @@
       </c>
       <c r="AO26" s="20"/>
       <c r="AP26" s="40" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3763,7 +3621,7 @@
       </c>
       <c r="AO27" s="20"/>
       <c r="AP27" s="40" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3867,7 +3725,7 @@
       </c>
       <c r="AO28" s="20"/>
       <c r="AP28" s="40" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3965,7 +3823,7 @@
         <v>93</v>
       </c>
       <c r="AP29" s="40" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4063,7 +3921,7 @@
         <v>93</v>
       </c>
       <c r="AP30" s="40" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4161,7 +4019,7 @@
         <v>93</v>
       </c>
       <c r="AP31" s="40" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4273,7 +4131,7 @@
         <v>98</v>
       </c>
       <c r="AP32" s="40" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4377,7 +4235,7 @@
         <v>98</v>
       </c>
       <c r="AP33" s="40" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4481,7 +4339,7 @@
         <v>98</v>
       </c>
       <c r="AP34" s="40" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4587,7 +4445,7 @@
       <c r="AN35" s="22"/>
       <c r="AO35" s="20"/>
       <c r="AP35" s="40" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4691,7 +4549,7 @@
         <v>98</v>
       </c>
       <c r="AP36" s="40" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4805,7 +4663,7 @@
         <v>86</v>
       </c>
       <c r="AP37" s="40" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4913,7 +4771,7 @@
       </c>
       <c r="AO38" s="33"/>
       <c r="AP38" s="40" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5019,7 +4877,7 @@
         <v>98</v>
       </c>
       <c r="AP39" s="40" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5123,7 +4981,7 @@
         <v>98</v>
       </c>
       <c r="AP40" s="40" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5227,7 +5085,7 @@
         <v>98</v>
       </c>
       <c r="AP41" s="40" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5333,7 +5191,7 @@
         <v>98</v>
       </c>
       <c r="AP42" s="40" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5437,7 +5295,7 @@
         <v>110</v>
       </c>
       <c r="AP43" s="40" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5541,7 +5399,7 @@
         <v>110</v>
       </c>
       <c r="AP44" s="40" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5645,7 +5503,7 @@
         <v>110</v>
       </c>
       <c r="AP45" s="40" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5749,12 +5607,12 @@
         <v>110</v>
       </c>
       <c r="AP46" s="40" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>109</v>
@@ -5857,7 +5715,7 @@
         <v>114</v>
       </c>
       <c r="AP47" s="40" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5960,8 +5818,8 @@
       <c r="AO48" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AP48" s="40" t="s">
-        <v>192</v>
+      <c r="AP48" s="41" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6070,8 +5928,8 @@
       <c r="AO49" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AP49" s="40" t="s">
-        <v>193</v>
+      <c r="AP49" s="41" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6174,8 +6032,8 @@
       <c r="AO50" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AP50" s="40" t="s">
-        <v>194</v>
+      <c r="AP50" s="41" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6278,8 +6136,8 @@
       <c r="AO51" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AP51" s="40" t="s">
-        <v>195</v>
+      <c r="AP51" s="41" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6382,8 +6240,8 @@
       <c r="AO52" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AP52" s="40" t="s">
-        <v>196</v>
+      <c r="AP52" s="41" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6486,8 +6344,8 @@
       <c r="AO53" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AP53" s="40" t="s">
-        <v>197</v>
+      <c r="AP53" s="41" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6590,8 +6448,8 @@
       <c r="AO54" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AP54" s="40" t="s">
-        <v>198</v>
+      <c r="AP54" s="41" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6698,8 +6556,8 @@
       <c r="AO55" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AP55" s="40" t="s">
-        <v>199</v>
+      <c r="AP55" s="41" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6806,8 +6664,8 @@
       <c r="AO56" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AP56" s="40" t="s">
-        <v>200</v>
+      <c r="AP56" s="41" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6910,8 +6768,8 @@
       <c r="AO57" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AP57" s="40" t="s">
-        <v>201</v>
+      <c r="AP57" s="41" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7020,8 +6878,8 @@
       <c r="AO58" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AP58" s="40" t="s">
-        <v>202</v>
+      <c r="AP58" s="41" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7128,8 +6986,8 @@
       <c r="AO59" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="AP59" s="40" t="s">
-        <v>203</v>
+      <c r="AP59" s="41" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7236,8 +7094,8 @@
       <c r="AO60" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AP60" s="40" t="s">
-        <v>204</v>
+      <c r="AP60" s="41" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7342,8 +7200,8 @@
       <c r="AO61" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AP61" s="40" t="s">
-        <v>205</v>
+      <c r="AP61" s="41" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7446,8 +7304,8 @@
       <c r="AO62" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="AP62" s="40" t="s">
-        <v>206</v>
+      <c r="AP62" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="AR62" s="15"/>
       <c r="AS62" s="15"/>
@@ -7554,8 +7412,8 @@
       <c r="AO63" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="AP63" s="40" t="s">
-        <v>207</v>
+      <c r="AP63" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="AR63" s="15"/>
       <c r="AS63" s="15"/>
@@ -7664,8 +7522,8 @@
       <c r="AO64" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="AP64" s="40" t="s">
-        <v>208</v>
+      <c r="AP64" s="41" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7768,8 +7626,8 @@
       <c r="AO65" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="AP65" s="40" t="s">
-        <v>209</v>
+      <c r="AP65" s="41" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -38298,7 +38156,9 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AP9" r:id="rId1" display="https://doi.org/10.1130/0016-7606(1972)83%5b2063:PAPAOT%5d2.0.CO;2" xr:uid="{5F1CF65B-B59F-C64D-972C-9FCF46206487}"/>
-    <hyperlink ref="AP10:AP65" r:id="rId2" display="https://doi.org/10.1130/0016-7606(1972)83%5b2063:PAPAOT%5d2.0.CO;2" xr:uid="{77B07FF0-D47A-0C4F-B795-BE699A60AF60}"/>
+    <hyperlink ref="AP16" r:id="rId2" display="https://doi.org/10.1130/0016-7606(1972)83%5b2063:PAPAOT%5d2.0.CO;2" xr:uid="{97E58499-0962-D746-94C5-53DAD9E5D209}"/>
+    <hyperlink ref="AP37" r:id="rId3" display="https://doi.org/10.1130/0016-7606(1972)83%5b2063:PAPAOT%5d2.0.CO;2" xr:uid="{1673B0D9-8D3A-8842-8E7B-E8FBA06F4D9E}"/>
+    <hyperlink ref="AP38" r:id="rId4" display="https://doi.org/10.1130/0016-7606(1972)83%5b2063:PAPAOT%5d2.0.CO;2" xr:uid="{9FD5338E-5C83-744E-8319-939E4DEAAF93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
